--- a/scripts_on_ubuntu/L2_project/ZK/sync_swap/sync_swap_50.xlsx
+++ b/scripts_on_ubuntu/L2_project/ZK/sync_swap/sync_swap_50.xlsx
@@ -579,7 +579,7 @@
       <c r="E4" s="8" t="n"/>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
@@ -603,7 +603,7 @@
       <c r="E5" s="8" t="n"/>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="G5" s="8" t="inlineStr">
